--- a/ReadyForConversion/AutoConverted.Set2/conversion.errors.xlsx
+++ b/ReadyForConversion/AutoConverted.Set2/conversion.errors.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itssglobal-my.sharepoint.com/personal/saranyak_itssglobal_com/Documents/Documents/GitHub/APAPLocal/ReadyForConversion/AutoConverted.Set2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_4496675DC66E751ED0E50AB26E5891E671C753F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Sheet0!$A$1:$B$426</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$B$426</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -2138,20 +2146,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2159,7 +2166,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -2176,28 +2183,336 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B426"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
-      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A410" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A426"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="41.0" customWidth="true"/>
-    <col min="2" max="2" width="255.0" customWidth="true"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="255" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2229,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2237,7 +2552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -2245,7 +2560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2269,7 +2584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -2277,7 +2592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2285,7 +2600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -2309,7 +2624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2317,7 +2632,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -2325,7 +2640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -2333,7 +2648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -2341,7 +2656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -2349,7 +2664,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -2357,7 +2672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -2365,7 +2680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -2373,7 +2688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2381,7 +2696,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -2389,7 +2704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>43</v>
       </c>
@@ -2405,7 +2720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2413,7 +2728,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
@@ -2421,7 +2736,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
@@ -2429,7 +2744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -2437,7 +2752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -2445,7 +2760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>
@@ -2453,7 +2768,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
@@ -2461,7 +2776,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -2469,7 +2784,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2477,7 +2792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2800,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
@@ -2493,7 +2808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
@@ -2501,7 +2816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
@@ -2509,7 +2824,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>71</v>
       </c>
@@ -2517,7 +2832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>72</v>
       </c>
@@ -2525,7 +2840,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2533,7 +2848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>76</v>
       </c>
@@ -2541,7 +2856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>77</v>
       </c>
@@ -2549,7 +2864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>78</v>
       </c>
@@ -2557,7 +2872,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -2565,7 +2880,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -2573,7 +2888,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>84</v>
       </c>
@@ -2581,7 +2896,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
@@ -2589,7 +2904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +2912,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>90</v>
       </c>
@@ -2605,7 +2920,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>91</v>
       </c>
@@ -2613,7 +2928,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
@@ -2621,7 +2936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>94</v>
       </c>
@@ -2629,7 +2944,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -2637,7 +2952,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -2645,7 +2960,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>100</v>
       </c>
@@ -2653,7 +2968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
@@ -2661,7 +2976,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -2669,7 +2984,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>106</v>
       </c>
@@ -2677,7 +2992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +3000,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>110</v>
       </c>
@@ -2693,7 +3008,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>112</v>
       </c>
@@ -2701,7 +3016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>113</v>
       </c>
@@ -2709,7 +3024,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>115</v>
       </c>
@@ -2717,7 +3032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -2725,7 +3040,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -2733,7 +3048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>119</v>
       </c>
@@ -2741,7 +3056,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>121</v>
       </c>
@@ -2749,7 +3064,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>122</v>
       </c>
@@ -2757,7 +3072,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>124</v>
       </c>
@@ -2765,7 +3080,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>125</v>
       </c>
@@ -2773,7 +3088,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>126</v>
       </c>
@@ -2781,7 +3096,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>128</v>
       </c>
@@ -2789,7 +3104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>129</v>
       </c>
@@ -2797,7 +3112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
@@ -2805,7 +3120,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -2813,7 +3128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>135</v>
       </c>
@@ -2821,7 +3136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>137</v>
       </c>
@@ -2829,7 +3144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>139</v>
       </c>
@@ -2837,7 +3152,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>141</v>
       </c>
@@ -2845,7 +3160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>143</v>
       </c>
@@ -2853,7 +3168,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>144</v>
       </c>
@@ -2861,7 +3176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>146</v>
       </c>
@@ -2869,7 +3184,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
@@ -2877,7 +3192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>150</v>
       </c>
@@ -2885,7 +3200,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>152</v>
       </c>
@@ -2893,7 +3208,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>154</v>
       </c>
@@ -2901,7 +3216,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>156</v>
       </c>
@@ -2909,7 +3224,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>157</v>
       </c>
@@ -2917,7 +3232,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>159</v>
       </c>
@@ -2925,7 +3240,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>160</v>
       </c>
@@ -2933,7 +3248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>162</v>
       </c>
@@ -2941,7 +3256,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>163</v>
       </c>
@@ -2949,7 +3264,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>164</v>
       </c>
@@ -2957,7 +3272,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>166</v>
       </c>
@@ -2965,7 +3280,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>168</v>
       </c>
@@ -2973,7 +3288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>170</v>
       </c>
@@ -2981,7 +3296,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>172</v>
       </c>
@@ -2989,7 +3304,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>174</v>
       </c>
@@ -2997,7 +3312,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>175</v>
       </c>
@@ -3005,7 +3320,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>176</v>
       </c>
@@ -3013,7 +3328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>177</v>
       </c>
@@ -3021,7 +3336,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>177</v>
       </c>
@@ -3029,7 +3344,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>180</v>
       </c>
@@ -3037,7 +3352,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>180</v>
       </c>
@@ -3045,7 +3360,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>183</v>
       </c>
@@ -3053,7 +3368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>183</v>
       </c>
@@ -3061,7 +3376,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>185</v>
       </c>
@@ -3069,7 +3384,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>187</v>
       </c>
@@ -3077,7 +3392,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>189</v>
       </c>
@@ -3085,7 +3400,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>191</v>
       </c>
@@ -3093,7 +3408,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>193</v>
       </c>
@@ -3101,7 +3416,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>195</v>
       </c>
@@ -3109,7 +3424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>197</v>
       </c>
@@ -3117,7 +3432,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
@@ -3125,7 +3440,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>201</v>
       </c>
@@ -3133,7 +3448,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>203</v>
       </c>
@@ -3141,7 +3456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>205</v>
       </c>
@@ -3149,7 +3464,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>206</v>
       </c>
@@ -3157,7 +3472,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>208</v>
       </c>
@@ -3165,7 +3480,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>209</v>
       </c>
@@ -3173,7 +3488,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>211</v>
       </c>
@@ -3181,7 +3496,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>212</v>
       </c>
@@ -3189,7 +3504,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>212</v>
       </c>
@@ -3197,7 +3512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>215</v>
       </c>
@@ -3205,7 +3520,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>217</v>
       </c>
@@ -3213,7 +3528,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>218</v>
       </c>
@@ -3221,7 +3536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>219</v>
       </c>
@@ -3229,7 +3544,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>220</v>
       </c>
@@ -3237,7 +3552,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>221</v>
       </c>
@@ -3245,7 +3560,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>223</v>
       </c>
@@ -3253,7 +3568,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>225</v>
       </c>
@@ -3261,7 +3576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>227</v>
       </c>
@@ -3269,7 +3584,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>229</v>
       </c>
@@ -3277,7 +3592,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>230</v>
       </c>
@@ -3285,7 +3600,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>232</v>
       </c>
@@ -3293,7 +3608,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>234</v>
       </c>
@@ -3301,7 +3616,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>236</v>
       </c>
@@ -3309,7 +3624,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>238</v>
       </c>
@@ -3317,7 +3632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>239</v>
       </c>
@@ -3325,7 +3640,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>241</v>
       </c>
@@ -3333,7 +3648,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>242</v>
       </c>
@@ -3341,7 +3656,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>243</v>
       </c>
@@ -3349,7 +3664,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>245</v>
       </c>
@@ -3357,7 +3672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>246</v>
       </c>
@@ -3365,7 +3680,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>247</v>
       </c>
@@ -3373,7 +3688,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>249</v>
       </c>
@@ -3381,7 +3696,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>250</v>
       </c>
@@ -3389,7 +3704,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>251</v>
       </c>
@@ -3397,7 +3712,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>253</v>
       </c>
@@ -3405,7 +3720,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>254</v>
       </c>
@@ -3413,7 +3728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>256</v>
       </c>
@@ -3421,7 +3736,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>257</v>
       </c>
@@ -3429,7 +3744,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>259</v>
       </c>
@@ -3437,7 +3752,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>261</v>
       </c>
@@ -3445,7 +3760,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>262</v>
       </c>
@@ -3453,7 +3768,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>264</v>
       </c>
@@ -3461,7 +3776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>266</v>
       </c>
@@ -3469,7 +3784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>268</v>
       </c>
@@ -3477,7 +3792,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>269</v>
       </c>
@@ -3485,7 +3800,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>270</v>
       </c>
@@ -3493,7 +3808,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>271</v>
       </c>
@@ -3501,7 +3816,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>272</v>
       </c>
@@ -3509,7 +3824,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>273</v>
       </c>
@@ -3517,7 +3832,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>274</v>
       </c>
@@ -3525,7 +3840,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>276</v>
       </c>
@@ -3533,7 +3848,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>278</v>
       </c>
@@ -3541,7 +3856,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>280</v>
       </c>
@@ -3549,7 +3864,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>281</v>
       </c>
@@ -3557,7 +3872,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>283</v>
       </c>
@@ -3565,7 +3880,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>285</v>
       </c>
@@ -3573,7 +3888,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>286</v>
       </c>
@@ -3581,7 +3896,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>287</v>
       </c>
@@ -3589,7 +3904,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>289</v>
       </c>
@@ -3597,7 +3912,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>291</v>
       </c>
@@ -3605,7 +3920,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>293</v>
       </c>
@@ -3613,7 +3928,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>295</v>
       </c>
@@ -3621,7 +3936,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>297</v>
       </c>
@@ -3629,7 +3944,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>298</v>
       </c>
@@ -3637,7 +3952,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>299</v>
       </c>
@@ -3645,7 +3960,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>300</v>
       </c>
@@ -3653,7 +3968,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>302</v>
       </c>
@@ -3661,7 +3976,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>303</v>
       </c>
@@ -3669,7 +3984,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>305</v>
       </c>
@@ -3677,7 +3992,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>306</v>
       </c>
@@ -3685,7 +4000,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>308</v>
       </c>
@@ -3693,7 +4008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>308</v>
       </c>
@@ -3701,7 +4016,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>308</v>
       </c>
@@ -3709,7 +4024,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>312</v>
       </c>
@@ -3717,7 +4032,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>314</v>
       </c>
@@ -3725,7 +4040,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>316</v>
       </c>
@@ -3733,7 +4048,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>317</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>319</v>
       </c>
@@ -3749,7 +4064,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>320</v>
       </c>
@@ -3757,7 +4072,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>321</v>
       </c>
@@ -3765,7 +4080,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>322</v>
       </c>
@@ -3773,7 +4088,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>324</v>
       </c>
@@ -3781,7 +4096,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>325</v>
       </c>
@@ -3789,7 +4104,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>326</v>
       </c>
@@ -3797,7 +4112,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>328</v>
       </c>
@@ -3805,7 +4120,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>330</v>
       </c>
@@ -3813,7 +4128,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>331</v>
       </c>
@@ -3821,7 +4136,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>332</v>
       </c>
@@ -3829,7 +4144,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>334</v>
       </c>
@@ -3837,7 +4152,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>336</v>
       </c>
@@ -3845,7 +4160,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>338</v>
       </c>
@@ -3853,7 +4168,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>340</v>
       </c>
@@ -3861,7 +4176,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>342</v>
       </c>
@@ -3869,7 +4184,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>344</v>
       </c>
@@ -3877,7 +4192,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>346</v>
       </c>
@@ -3885,7 +4200,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>348</v>
       </c>
@@ -3893,7 +4208,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>350</v>
       </c>
@@ -3901,7 +4216,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>351</v>
       </c>
@@ -3909,7 +4224,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>352</v>
       </c>
@@ -3917,7 +4232,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>352</v>
       </c>
@@ -3925,7 +4240,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>355</v>
       </c>
@@ -3933,7 +4248,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>357</v>
       </c>
@@ -3941,7 +4256,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>358</v>
       </c>
@@ -3949,7 +4264,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>359</v>
       </c>
@@ -3957,7 +4272,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>360</v>
       </c>
@@ -3965,7 +4280,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>362</v>
       </c>
@@ -3973,7 +4288,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>363</v>
       </c>
@@ -3981,7 +4296,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>365</v>
       </c>
@@ -3989,7 +4304,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>367</v>
       </c>
@@ -3997,7 +4312,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>369</v>
       </c>
@@ -4005,7 +4320,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>371</v>
       </c>
@@ -4013,7 +4328,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>373</v>
       </c>
@@ -4021,7 +4336,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>375</v>
       </c>
@@ -4029,7 +4344,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>377</v>
       </c>
@@ -4037,7 +4352,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>379</v>
       </c>
@@ -4045,7 +4360,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>381</v>
       </c>
@@ -4053,7 +4368,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>383</v>
       </c>
@@ -4061,7 +4376,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>385</v>
       </c>
@@ -4069,7 +4384,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>386</v>
       </c>
@@ -4077,7 +4392,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>388</v>
       </c>
@@ -4085,7 +4400,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>389</v>
       </c>
@@ -4093,7 +4408,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>390</v>
       </c>
@@ -4101,7 +4416,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>392</v>
       </c>
@@ -4109,7 +4424,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>394</v>
       </c>
@@ -4117,7 +4432,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>396</v>
       </c>
@@ -4125,7 +4440,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>398</v>
       </c>
@@ -4133,7 +4448,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>400</v>
       </c>
@@ -4141,7 +4456,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>402</v>
       </c>
@@ -4149,7 +4464,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>403</v>
       </c>
@@ -4157,7 +4472,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>405</v>
       </c>
@@ -4165,7 +4480,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>407</v>
       </c>
@@ -4173,7 +4488,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>409</v>
       </c>
@@ -4181,7 +4496,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>411</v>
       </c>
@@ -4189,7 +4504,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>413</v>
       </c>
@@ -4197,7 +4512,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>414</v>
       </c>
@@ -4205,7 +4520,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>416</v>
       </c>
@@ -4213,7 +4528,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>418</v>
       </c>
@@ -4221,7 +4536,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>420</v>
       </c>
@@ -4229,7 +4544,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>422</v>
       </c>
@@ -4237,7 +4552,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>422</v>
       </c>
@@ -4245,7 +4560,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>425</v>
       </c>
@@ -4253,7 +4568,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>425</v>
       </c>
@@ -4261,7 +4576,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>427</v>
       </c>
@@ -4269,7 +4584,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>429</v>
       </c>
@@ -4277,7 +4592,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>431</v>
       </c>
@@ -4285,7 +4600,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>432</v>
       </c>
@@ -4293,7 +4608,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>433</v>
       </c>
@@ -4301,7 +4616,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>434</v>
       </c>
@@ -4309,7 +4624,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>435</v>
       </c>
@@ -4317,7 +4632,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>437</v>
       </c>
@@ -4325,7 +4640,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>439</v>
       </c>
@@ -4333,7 +4648,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>440</v>
       </c>
@@ -4341,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>441</v>
       </c>
@@ -4349,7 +4664,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>443</v>
       </c>
@@ -4357,7 +4672,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>445</v>
       </c>
@@ -4365,7 +4680,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>446</v>
       </c>
@@ -4373,7 +4688,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>448</v>
       </c>
@@ -4381,7 +4696,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>449</v>
       </c>
@@ -4389,7 +4704,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>451</v>
       </c>
@@ -4397,7 +4712,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>453</v>
       </c>
@@ -4405,7 +4720,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>455</v>
       </c>
@@ -4413,7 +4728,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>457</v>
       </c>
@@ -4421,7 +4736,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>458</v>
       </c>
@@ -4429,7 +4744,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>459</v>
       </c>
@@ -4437,7 +4752,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>461</v>
       </c>
@@ -4445,7 +4760,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>463</v>
       </c>
@@ -4453,7 +4768,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>465</v>
       </c>
@@ -4461,7 +4776,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>467</v>
       </c>
@@ -4469,7 +4784,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>469</v>
       </c>
@@ -4477,7 +4792,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>470</v>
       </c>
@@ -4485,7 +4800,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>472</v>
       </c>
@@ -4493,7 +4808,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>474</v>
       </c>
@@ -4501,7 +4816,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>476</v>
       </c>
@@ -4509,7 +4824,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>477</v>
       </c>
@@ -4517,7 +4832,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>479</v>
       </c>
@@ -4525,7 +4840,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>480</v>
       </c>
@@ -4533,7 +4848,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>482</v>
       </c>
@@ -4541,7 +4856,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>483</v>
       </c>
@@ -4549,7 +4864,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>484</v>
       </c>
@@ -4557,7 +4872,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>486</v>
       </c>
@@ -4565,7 +4880,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>487</v>
       </c>
@@ -4573,7 +4888,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>489</v>
       </c>
@@ -4581,7 +4896,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>491</v>
       </c>
@@ -4589,7 +4904,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>493</v>
       </c>
@@ -4597,7 +4912,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>494</v>
       </c>
@@ -4605,7 +4920,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>495</v>
       </c>
@@ -4613,7 +4928,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>497</v>
       </c>
@@ -4621,7 +4936,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>498</v>
       </c>
@@ -4629,7 +4944,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>500</v>
       </c>
@@ -4637,7 +4952,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>501</v>
       </c>
@@ -4645,7 +4960,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>503</v>
       </c>
@@ -4653,7 +4968,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>505</v>
       </c>
@@ -4661,7 +4976,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>507</v>
       </c>
@@ -4669,7 +4984,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>508</v>
       </c>
@@ -4677,7 +4992,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>510</v>
       </c>
@@ -4685,7 +5000,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>512</v>
       </c>
@@ -4693,7 +5008,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>514</v>
       </c>
@@ -4701,7 +5016,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>515</v>
       </c>
@@ -4709,7 +5024,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>516</v>
       </c>
@@ -4717,7 +5032,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>517</v>
       </c>
@@ -4725,7 +5040,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>518</v>
       </c>
@@ -4733,7 +5048,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>519</v>
       </c>
@@ -4741,7 +5056,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>521</v>
       </c>
@@ -4749,7 +5064,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>523</v>
       </c>
@@ -4757,7 +5072,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>525</v>
       </c>
@@ -4765,7 +5080,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>527</v>
       </c>
@@ -4773,7 +5088,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>528</v>
       </c>
@@ -4781,7 +5096,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>529</v>
       </c>
@@ -4789,7 +5104,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>531</v>
       </c>
@@ -4797,7 +5112,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>532</v>
       </c>
@@ -4805,7 +5120,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>534</v>
       </c>
@@ -4813,7 +5128,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>535</v>
       </c>
@@ -4821,7 +5136,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>537</v>
       </c>
@@ -4829,7 +5144,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>539</v>
       </c>
@@ -4837,7 +5152,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>540</v>
       </c>
@@ -4845,7 +5160,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>542</v>
       </c>
@@ -4853,7 +5168,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>543</v>
       </c>
@@ -4861,7 +5176,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>545</v>
       </c>
@@ -4869,7 +5184,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>547</v>
       </c>
@@ -4877,7 +5192,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>549</v>
       </c>
@@ -4885,7 +5200,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>550</v>
       </c>
@@ -4893,7 +5208,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>551</v>
       </c>
@@ -4901,7 +5216,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>553</v>
       </c>
@@ -4909,7 +5224,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>555</v>
       </c>
@@ -4917,7 +5232,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>557</v>
       </c>
@@ -4925,7 +5240,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>559</v>
       </c>
@@ -4933,7 +5248,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>561</v>
       </c>
@@ -4941,7 +5256,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>563</v>
       </c>
@@ -4949,7 +5264,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>564</v>
       </c>
@@ -4957,7 +5272,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>566</v>
       </c>
@@ -4965,7 +5280,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>568</v>
       </c>
@@ -4973,7 +5288,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>570</v>
       </c>
@@ -4981,7 +5296,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>572</v>
       </c>
@@ -4989,7 +5304,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>573</v>
       </c>
@@ -4997,7 +5312,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>575</v>
       </c>
@@ -5005,7 +5320,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>577</v>
       </c>
@@ -5013,7 +5328,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>578</v>
       </c>
@@ -5021,7 +5336,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>580</v>
       </c>
@@ -5029,7 +5344,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>582</v>
       </c>
@@ -5037,7 +5352,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>583</v>
       </c>
@@ -5045,7 +5360,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>585</v>
       </c>
@@ -5053,7 +5368,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>587</v>
       </c>
@@ -5061,7 +5376,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>589</v>
       </c>
@@ -5069,7 +5384,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>591</v>
       </c>
@@ -5077,7 +5392,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>593</v>
       </c>
@@ -5085,7 +5400,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>595</v>
       </c>
@@ -5093,7 +5408,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>597</v>
       </c>
@@ -5101,7 +5416,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>599</v>
       </c>
@@ -5109,7 +5424,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>601</v>
       </c>
@@ -5117,7 +5432,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>603</v>
       </c>
@@ -5125,7 +5440,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>604</v>
       </c>
@@ -5133,7 +5448,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>606</v>
       </c>
@@ -5141,7 +5456,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>608</v>
       </c>
@@ -5149,7 +5464,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>610</v>
       </c>
@@ -5157,7 +5472,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>612</v>
       </c>
@@ -5165,7 +5480,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>614</v>
       </c>
@@ -5173,7 +5488,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>615</v>
       </c>
@@ -5181,7 +5496,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>617</v>
       </c>
@@ -5189,7 +5504,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>619</v>
       </c>
@@ -5197,7 +5512,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>620</v>
       </c>
@@ -5205,7 +5520,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>622</v>
       </c>
@@ -5213,7 +5528,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>624</v>
       </c>
@@ -5221,7 +5536,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>625</v>
       </c>
@@ -5229,7 +5544,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>627</v>
       </c>
@@ -5237,7 +5552,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>629</v>
       </c>
@@ -5245,7 +5560,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>631</v>
       </c>
@@ -5253,7 +5568,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>633</v>
       </c>
@@ -5261,7 +5576,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>635</v>
       </c>
@@ -5269,7 +5584,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>637</v>
       </c>
@@ -5277,7 +5592,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>639</v>
       </c>
@@ -5285,7 +5600,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>641</v>
       </c>
@@ -5293,7 +5608,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>643</v>
       </c>
@@ -5301,7 +5616,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>645</v>
       </c>
@@ -5309,7 +5624,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>647</v>
       </c>
@@ -5317,7 +5632,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>649</v>
       </c>
@@ -5325,7 +5640,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>651</v>
       </c>
@@ -5333,7 +5648,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>652</v>
       </c>
@@ -5341,7 +5656,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>654</v>
       </c>
@@ -5349,7 +5664,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>656</v>
       </c>
@@ -5357,7 +5672,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>657</v>
       </c>
@@ -5365,7 +5680,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>658</v>
       </c>
@@ -5373,7 +5688,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>660</v>
       </c>
@@ -5381,7 +5696,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>661</v>
       </c>
@@ -5389,7 +5704,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>663</v>
       </c>
@@ -5397,7 +5712,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>665</v>
       </c>
@@ -5405,7 +5720,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>667</v>
       </c>
@@ -5413,7 +5728,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>669</v>
       </c>
@@ -5421,7 +5736,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>671</v>
       </c>
@@ -5429,7 +5744,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>673</v>
       </c>
@@ -5437,7 +5752,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>675</v>
       </c>
@@ -5445,7 +5760,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>676</v>
       </c>
@@ -5453,7 +5768,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>677</v>
       </c>
@@ -5461,7 +5776,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>678</v>
       </c>
@@ -5469,7 +5784,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>679</v>
       </c>
@@ -5477,7 +5792,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>680</v>
       </c>
@@ -5485,7 +5800,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>681</v>
       </c>
@@ -5493,7 +5808,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>682</v>
       </c>
@@ -5501,7 +5816,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>684</v>
       </c>
@@ -5509,7 +5824,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>685</v>
       </c>
@@ -5517,7 +5832,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>686</v>
       </c>
@@ -5525,7 +5840,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>687</v>
       </c>
@@ -5533,7 +5848,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>689</v>
       </c>
@@ -5541,7 +5856,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>691</v>
       </c>
@@ -5549,7 +5864,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>693</v>
       </c>
@@ -5557,7 +5872,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>695</v>
       </c>
@@ -5565,7 +5880,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>697</v>
       </c>
@@ -5573,7 +5888,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>698</v>
       </c>
@@ -5581,7 +5896,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>700</v>
       </c>
@@ -5589,7 +5904,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>702</v>
       </c>
@@ -5597,7 +5912,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>704</v>
       </c>
@@ -5606,7 +5921,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B426"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="A1:B426" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>